--- a/装修/装修费用清单.xlsx
+++ b/装修/装修费用清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>硬装</t>
   </si>
@@ -136,9 +136,6 @@
     </r>
   </si>
   <si>
-    <t>地砖</t>
-  </si>
-  <si>
     <t>油烟机灶具</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>马桶</t>
   </si>
   <si>
-    <t>卫生间台盆</t>
-  </si>
-  <si>
     <t>镜柜</t>
   </si>
   <si>
@@ -307,15 +301,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3399热水器+315安装费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4300灶具+150安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3个房门+进户门、厨房门门套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯348.67，客餐厅、卧室灯2660</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间浴室柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改孔80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3399热水器+315安装费+80加管费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东鹏瓷砖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台墙砖+踢脚线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元踢脚线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜门把手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个128mm，16个96mm，2个抽屉把手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4罐厨卫专用，4罐多用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门槛石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽屉导轨+暗拉手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔板钉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H46"/>
+  <dimension ref="A2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -701,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -811,7 +861,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>10000</v>
@@ -828,333 +878,416 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>4300</v>
-      </c>
-      <c r="D10">
-        <v>4300</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G10">
-        <v>4450</v>
+        <v>644</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>2050</v>
+        <v>4300</v>
       </c>
       <c r="D11">
-        <v>2030</v>
+        <v>4300</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>2030</v>
+        <v>4450</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>630</v>
+        <v>2050</v>
       </c>
       <c r="D12">
-        <v>630</v>
+        <v>2030</v>
       </c>
       <c r="G12">
-        <v>630</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>3900</v>
+        <v>630</v>
       </c>
       <c r="D13">
-        <v>3714</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3714</v>
+        <v>630</v>
+      </c>
+      <c r="G13">
+        <v>710</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <v>5000</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
+        <v>3900</v>
+      </c>
+      <c r="D14">
+        <v>3714</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3794</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G15">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16">
+        <v>6000</v>
+      </c>
+      <c r="G16">
         <v>3000</v>
-      </c>
-      <c r="G16">
-        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G17">
-        <v>2200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>1500</v>
+        <v>69</v>
+      </c>
+      <c r="G18">
+        <v>161.18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>1500</v>
+      </c>
+      <c r="G19">
+        <v>2200</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>839</v>
+        <v>1500</v>
       </c>
       <c r="G20">
-        <v>839</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>2500</v>
-      </c>
-      <c r="G21">
-        <v>3277</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>839</v>
       </c>
       <c r="G22">
-        <v>500</v>
+        <v>839</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>5000</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
+        <v>2500</v>
       </c>
       <c r="G23">
-        <v>7750</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>3000</v>
+        <v>70</v>
       </c>
       <c r="G24">
-        <v>3450</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>2500</v>
+        <v>5000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
       </c>
       <c r="G26">
-        <v>2800</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>300</v>
+        <v>3000</v>
+      </c>
+      <c r="G27">
+        <v>3450</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
       </c>
       <c r="G28">
-        <v>599</v>
+        <v>189.8</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29">
+        <v>3008.67</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>2500</v>
+      </c>
+      <c r="G30">
+        <v>2800</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>450</v>
-      </c>
-      <c r="D32">
-        <v>450</v>
+        <v>34</v>
       </c>
       <c r="G32">
-        <v>450</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>16000</v>
-      </c>
-      <c r="G35">
-        <v>2000</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>2000</v>
+        <v>450</v>
+      </c>
+      <c r="D36">
+        <v>450</v>
       </c>
       <c r="G36">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37">
-        <v>6000</v>
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37">
+        <v>250.4</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>4000</v>
+        <v>67</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41">
-        <v>2000</v>
+        <v>68</v>
+      </c>
+      <c r="G39">
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>16000</v>
+      </c>
+      <c r="G42">
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>2000</v>
+      </c>
+      <c r="G43">
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>6000</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>4000</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>15000</v>
+      </c>
+      <c r="G47">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/装修/装修费用清单.xlsx
+++ b/装修/装修费用清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>硬装</t>
   </si>
@@ -194,9 +194,6 @@
     <t>马桶</t>
   </si>
   <si>
-    <t>镜柜</t>
-  </si>
-  <si>
     <t>前置过滤器</t>
   </si>
   <si>
@@ -309,10 +306,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>筒灯348.67，客餐厅、卧室灯2660</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>卫生间浴室柜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -366,6 +359,50 @@
   </si>
   <si>
     <t>隔板钉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴房五金件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房调味架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯348.67，客餐厅、卧室灯、过道灯2890</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台灯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩恩角阀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间吊柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电工安装工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电工胶带、生料带、瓷砖钻头、电视模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含浴室柜和镜柜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -720,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H53"/>
+  <dimension ref="A2:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -751,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -861,7 +898,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>10000</v>
@@ -878,13 +915,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>644</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -904,7 +941,7 @@
         <v>4450</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -935,12 +972,12 @@
         <v>710</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>3900</v>
@@ -955,7 +992,7 @@
         <v>3794</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -966,7 +1003,7 @@
         <v>5000</v>
       </c>
       <c r="G15">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -980,7 +1017,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -991,15 +1028,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18">
         <v>161.18</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1010,28 +1047,31 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>1500</v>
       </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
       <c r="G20">
         <v>1168</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21">
+        <v>251.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B22">
         <v>839</v>
@@ -1040,9 +1080,9 @@
         <v>839</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>2500</v>
@@ -1051,39 +1091,39 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25">
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>5000</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26">
         <v>7750</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -1092,202 +1132,254 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>189.8</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29">
+        <v>3038.67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30">
+        <v>147.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29">
-        <v>3008.67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="B31">
+        <v>2500</v>
+      </c>
+      <c r="G31">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <v>2500</v>
-      </c>
-      <c r="G30">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
+      <c r="B32">
         <v>300</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32">
-        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>450</v>
-      </c>
-      <c r="D36">
-        <v>450</v>
-      </c>
-      <c r="G36">
-        <v>450</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37">
-        <v>250.4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>450</v>
+      </c>
+      <c r="D38">
+        <v>450</v>
       </c>
       <c r="G38">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
       </c>
       <c r="G39">
+        <v>250.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41">
         <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>16000</v>
+        <v>71</v>
       </c>
       <c r="G42">
-        <v>2000</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="G43">
-        <v>500</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>6000</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47">
-        <v>15000</v>
-      </c>
-      <c r="G47">
-        <v>6999</v>
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48">
+        <v>16000</v>
+      </c>
+      <c r="G48">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49">
+        <v>2000</v>
+      </c>
+      <c r="G49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>15000</v>
+      </c>
+      <c r="G53">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/装修/装修费用清单.xlsx
+++ b/装修/装修费用清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>硬装</t>
   </si>
@@ -244,9 +244,6 @@
     <t>洗衣机水龙头</t>
   </si>
   <si>
-    <t>阳台台盆</t>
-  </si>
-  <si>
     <t>煤气开通</t>
   </si>
   <si>
@@ -265,27 +262,18 @@
     <t>冰箱</t>
   </si>
   <si>
-    <t>床</t>
-  </si>
-  <si>
     <t>书桌</t>
   </si>
   <si>
     <t>家具吊装费</t>
   </si>
   <si>
-    <t>电视柜</t>
-  </si>
-  <si>
     <t>床头柜</t>
   </si>
   <si>
     <t>餐边柜</t>
   </si>
   <si>
-    <t>餐桌椅</t>
-  </si>
-  <si>
     <t>燃气热水器+安装费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -403,6 +391,26 @@
   </si>
   <si>
     <t>包含浴室柜和镜柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帘幽梦还有500押金要退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧床+床垫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧床+床垫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3680+3999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台洗衣台</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -757,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H59"/>
+  <dimension ref="A2:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -788,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -898,7 +906,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>10000</v>
@@ -915,13 +923,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>644</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -941,7 +949,7 @@
         <v>4450</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -972,12 +980,12 @@
         <v>710</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>3900</v>
@@ -992,7 +1000,7 @@
         <v>3794</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1030,7 +1038,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G18">
         <v>161.18</v>
@@ -1049,13 +1057,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>1500</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G20">
         <v>1168</v>
@@ -1063,7 +1071,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21">
         <v>251.46</v>
@@ -1093,7 +1101,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>30</v>
@@ -1101,10 +1109,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G25">
-        <v>500</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1115,7 +1123,7 @@
         <v>5000</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>7750</v>
@@ -1134,10 +1142,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G28">
         <v>189.8</v>
@@ -1148,18 +1156,18 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G29">
         <v>3038.67</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G30">
         <v>147.21</v>
@@ -1197,10 +1205,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G34">
         <v>198</v>
@@ -1218,12 +1226,12 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>450</v>
@@ -1237,10 +1245,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G39">
         <v>250.4</v>
@@ -1248,7 +1256,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>1000</v>
@@ -1256,7 +1264,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>180</v>
@@ -1264,7 +1272,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G42">
         <v>78</v>
@@ -1272,7 +1280,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G43">
         <v>135</v>
@@ -1282,105 +1290,127 @@
       <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>16000</v>
+      </c>
+      <c r="G49">
+        <v>17199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>2000</v>
+      </c>
+      <c r="G50">
+        <v>2760</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <v>4000</v>
+      </c>
+      <c r="G52">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53">
+        <v>3500</v>
+      </c>
+      <c r="G53">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E45" t="s">
+      <c r="B54">
+        <v>15000</v>
+      </c>
+      <c r="G54">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G45">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48">
-        <v>16000</v>
-      </c>
-      <c r="G48">
+      <c r="B55">
+        <v>15000</v>
+      </c>
+      <c r="F55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55">
+        <v>7689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
         <v>2000</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49">
-        <v>2000</v>
-      </c>
-      <c r="G49">
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53">
-        <v>15000</v>
-      </c>
-      <c r="G53">
-        <v>6999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
